--- a/tests/fixtures/diff_mat.xlsx
+++ b/tests/fixtures/diff_mat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyPy\Packages\fltk\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8512C-9B20-466A-A371-77B7538EFB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351D096F-7E89-4638-8090-19DBEB0DAFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{B15CCCEE-BBA2-4B37-9C1B-97DB990DA2A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{B15CCCEE-BBA2-4B37-9C1B-97DB990DA2A7}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="6" r:id="rId1"/>
@@ -70,37 +70,37 @@
     <t>entity</t>
   </si>
   <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>cieA</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>costs</t>
+  </si>
+  <si>
+    <t>cieB</t>
+  </si>
+  <si>
+    <t>cieC</t>
+  </si>
+  <si>
+    <t>qrtr</t>
+  </si>
+  <si>
+    <t>rolly</t>
+  </si>
+  <si>
+    <t>pertype</t>
+  </si>
+  <si>
+    <t>cum</t>
+  </si>
+  <si>
     <t>period</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>cieA</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>costs</t>
-  </si>
-  <si>
-    <t>cieB</t>
-  </si>
-  <si>
-    <t>cieC</t>
-  </si>
-  <si>
-    <t>qrtr</t>
-  </si>
-  <si>
-    <t>rolly</t>
-  </si>
-  <si>
-    <t>pertype</t>
-  </si>
-  <si>
-    <t>cum</t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7987BE5C-57A2-4D8F-893E-70B1404CBB51}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,33 +547,33 @@
         <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3">
         <f>4*40</f>
@@ -590,16 +590,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3">
         <v>100</v>
@@ -615,16 +615,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E6" si="0">ROUND(E3 * 1.25, 0)</f>
@@ -641,16 +641,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -667,16 +667,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -693,16 +693,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3">
         <v>125</v>
@@ -718,16 +718,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E10" si="1">ROUND(E7 * 1.25, 0)</f>
@@ -744,16 +744,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -770,16 +770,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -796,16 +796,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3">
         <v>150</v>
@@ -821,16 +821,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3">
         <f>4*30</f>
@@ -847,16 +847,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3">
         <v>70</v>
@@ -872,16 +872,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E16" si="2">ROUND(E13 * 1.25, 0)</f>
@@ -898,16 +898,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
@@ -924,16 +924,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
@@ -950,16 +950,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -975,16 +975,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:E20" si="3">ROUND(E17 * 1.25, 0)</f>
@@ -1001,16 +1001,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
@@ -1027,16 +1027,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
@@ -1053,16 +1053,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="3">
         <v>125</v>
@@ -1078,16 +1078,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <f>E4</f>
@@ -1104,16 +1104,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:E24" si="4">E5</f>
@@ -1130,16 +1130,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
@@ -1156,16 +1156,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <f>E7</f>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <f t="shared" ref="E26" si="5">E8</f>
@@ -1208,16 +1208,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <f>E10</f>
@@ -1234,16 +1234,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <f>E4</f>
@@ -1260,16 +1260,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <f>E5</f>
@@ -1286,16 +1286,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <f>E7</f>
@@ -1312,16 +1312,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <f t="shared" ref="E31:E33" si="6">E8</f>
@@ -1338,16 +1338,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <f t="shared" si="6"/>
@@ -1364,16 +1364,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <f t="shared" si="6"/>
@@ -1552,7 +1552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5F6FF9-67CC-43DC-934E-7FD580C2D196}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/tests/fixtures/diff_mat.xlsx
+++ b/tests/fixtures/diff_mat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyPy\Packages\fltk\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351D096F-7E89-4638-8090-19DBEB0DAFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B9D2EE-259E-4ADB-AAD6-42947C630727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{B15CCCEE-BBA2-4B37-9C1B-97DB990DA2A7}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="25">
   <si>
     <t>q2021-4</t>
   </si>
@@ -88,12 +88,6 @@
     <t>cieC</t>
   </si>
   <si>
-    <t>qrtr</t>
-  </si>
-  <si>
-    <t>rolly</t>
-  </si>
-  <si>
     <t>pertype</t>
   </si>
   <si>
@@ -101,6 +95,15 @@
   </si>
   <si>
     <t>period</t>
+  </si>
+  <si>
+    <t>q2022-2</t>
+  </si>
+  <si>
+    <t>qrtr_target</t>
+  </si>
+  <si>
+    <t>rolly_target</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -200,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -214,6 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,13 +547,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7987BE5C-57A2-4D8F-893E-70B1404CBB51}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -547,19 +566,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <f>4*40</f>
@@ -599,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3">
         <v>100</v>
@@ -624,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E6" si="0">ROUND(E3 * 1.25, 0)</f>
@@ -650,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
@@ -676,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
@@ -702,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3">
         <v>125</v>
@@ -727,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E10" si="1">ROUND(E7 * 1.25, 0)</f>
@@ -753,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -779,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -805,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3">
         <v>150</v>
@@ -830,7 +849,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3">
         <f>4*30</f>
@@ -856,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3">
         <v>70</v>
@@ -881,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <f t="shared" ref="E14:E16" si="2">ROUND(E13 * 1.25, 0)</f>
@@ -907,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
@@ -933,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
@@ -959,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -984,10 +1003,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E20" si="3">ROUND(E17 * 1.25, 0)</f>
+        <f t="shared" ref="E18:E22" si="3">ROUND(E17 * 1.25, 0)</f>
         <v>125</v>
       </c>
       <c r="F18">
@@ -1010,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
@@ -1036,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
@@ -1062,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3">
         <v>125</v>
@@ -1077,27 +1096,27 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E22">
-        <f>E4</f>
-        <v>125</v>
-      </c>
-      <c r="F22" t="e">
+      <c r="D22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="F22" s="9" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="G22" t="e">
+      <c r="G22" s="9" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -1110,18 +1129,18 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:E24" si="4">E5</f>
-        <v>156</v>
-      </c>
-      <c r="F23">
-        <f>E23 - E22</f>
-        <v>31</v>
+        <f>E4</f>
+        <v>125</v>
+      </c>
+      <c r="F23" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="G23" t="e">
         <f>NA()</f>
@@ -1136,22 +1155,22 @@
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <f t="shared" si="4"/>
-        <v>195</v>
+        <f t="shared" ref="E24:E25" si="4">E5</f>
+        <v>156</v>
       </c>
       <c r="F24">
         <f>E24 - E23</f>
-        <v>39</v>
-      </c>
-      <c r="G24">
-        <f>E24</f>
-        <v>195</v>
+        <v>31</v>
+      </c>
+      <c r="G24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1162,22 +1181,22 @@
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <f>E7</f>
-        <v>125</v>
+        <f t="shared" si="4"/>
+        <v>195</v>
       </c>
       <c r="F25">
+        <f>E25 - E24</f>
+        <v>39</v>
+      </c>
+      <c r="G25">
         <f>E25</f>
-        <v>125</v>
-      </c>
-      <c r="G25" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1188,22 +1207,22 @@
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="5">E8</f>
-        <v>156</v>
+        <f>E7</f>
+        <v>125</v>
       </c>
       <c r="F26">
-        <f>E26 - E25</f>
-        <v>31</v>
-      </c>
-      <c r="G26">
-        <f>-E22 + E24 + E26</f>
-        <v>226</v>
+        <f>E26</f>
+        <v>125</v>
+      </c>
+      <c r="G26" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1214,48 +1233,48 @@
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="5">E8</f>
+        <v>156</v>
+      </c>
+      <c r="F27">
+        <f>E27 - E26</f>
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <f>-E23 + E25 + E27</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27">
+      <c r="D28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
         <f>E10</f>
         <v>244</v>
-      </c>
-      <c r="F27" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G27">
-        <f>E27</f>
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <f>E4</f>
-        <v>125</v>
       </c>
       <c r="F28" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="G28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="G28">
+        <f>E28</f>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1266,18 +1285,18 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <f>E5</f>
-        <v>156</v>
-      </c>
-      <c r="F29">
-        <f>E29 - E28</f>
-        <v>31</v>
+        <f>E4</f>
+        <v>125</v>
+      </c>
+      <c r="F29" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="G29" t="e">
         <f>NA()</f>
@@ -1292,18 +1311,18 @@
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <f>E7</f>
-        <v>125</v>
+        <f>E5</f>
+        <v>156</v>
       </c>
       <c r="F30">
-        <f>E30</f>
-        <v>125</v>
+        <f>E30 - E29</f>
+        <v>31</v>
       </c>
       <c r="G30" t="e">
         <f>NA()</f>
@@ -1318,18 +1337,18 @@
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E33" si="6">E8</f>
-        <v>156</v>
+        <f>E7</f>
+        <v>125</v>
       </c>
       <c r="F31">
-        <f>E31 - E30</f>
-        <v>31</v>
+        <f>E31</f>
+        <v>125</v>
       </c>
       <c r="G31" t="e">
         <f>NA()</f>
@@ -1344,18 +1363,18 @@
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
-        <v>195</v>
+        <f t="shared" ref="E32:E34" si="6">E8</f>
+        <v>156</v>
       </c>
       <c r="F32">
         <f>E32 - E31</f>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G32" t="e">
         <f>NA()</f>
@@ -1370,21 +1389,47 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <f t="shared" si="6"/>
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="F33">
         <f>E33 - E32</f>
+        <v>39</v>
+      </c>
+      <c r="G33" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>244</v>
+      </c>
+      <c r="F34">
+        <f>E34 - E33</f>
         <v>49</v>
       </c>
-      <c r="G33">
-        <f>E33</f>
+      <c r="G34">
+        <f>E34</f>
         <v>244</v>
       </c>
     </row>

--- a/tests/fixtures/diff_mat.xlsx
+++ b/tests/fixtures/diff_mat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyPy\Packages\fltk\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B9D2EE-259E-4ADB-AAD6-42947C630727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE8D33-20F7-4E25-A69F-DE5D3D89DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{B15CCCEE-BBA2-4B37-9C1B-97DB990DA2A7}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/fixtures/diff_mat.xlsx
+++ b/tests/fixtures/diff_mat.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\MyPy\Packages\fltk\tests\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE8D33-20F7-4E25-A69F-DE5D3D89DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6970E4F-6E60-41F2-A0DF-46A023A5E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{B15CCCEE-BBA2-4B37-9C1B-97DB990DA2A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="6" r:id="rId1"/>
+    <sheet name="data1" sheetId="6" r:id="rId1"/>
     <sheet name="qrtr" sheetId="7" r:id="rId2"/>
     <sheet name="rolly" sheetId="8" r:id="rId3"/>
     <sheet name="qrtr_old" sheetId="5" r:id="rId4"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
